--- a/output/feedback_analysis_complete.xlsx
+++ b/output/feedback_analysis_complete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Vollständige Analyse" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Cluster Zusammenfassung" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vollständige Analyse" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster Zusammenfassung" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,11 +508,11 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.5994</v>
+        <v>0.9983036518096924</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.5994</v>
+        <v>-0.9625122547149658</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -580,11 +580,11 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.9514044523239136</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.3182</v>
+        <v>0.9902892112731934</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.3182</v>
+        <v>0.9652268290519714</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -796,11 +796,11 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.9620301127433777</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -832,11 +832,11 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3802</v>
+        <v>-0.8057100176811218</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -868,11 +868,11 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1048,11 +1048,11 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.994373083114624</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1156,11 +1156,11 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.9587718844413757</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6114000000000001</v>
+        <v>0.9933930039405823</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5719</v>
+        <v>0.9931740164756775</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.3182</v>
+        <v>0.9730138182640076</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1336,11 +1336,11 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1372,11 +1372,11 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.3182</v>
+        <v>0.9468191266059875</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3182</v>
+        <v>0.9733182787895203</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1516,11 +1516,11 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1660,11 +1660,11 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1732,11 +1732,11 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5574</v>
+        <v>0.9926878213882446</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1804,11 +1804,11 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1912,11 +1912,11 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1984,11 +1984,11 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2164,11 +2164,11 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>-0.9827096462249756</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.994373083114624</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2344,11 +2344,11 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-0.422808974981308</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2416,11 +2416,11 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3182</v>
+        <v>0.9902892112731934</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2488,11 +2488,11 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.994373083114624</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2596,11 +2596,11 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-0.9740448594093323</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.3182</v>
+        <v>0.9902892112731934</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2740,11 +2740,11 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2812,11 +2812,11 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.908699631690979</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2848,11 +2848,11 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>-0.9327439069747925</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2884,11 +2884,11 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2956,11 +2956,11 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3172,11 +3172,11 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3244,11 +3244,11 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3280,11 +3280,11 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>-0.9831733703613281</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3352,11 +3352,11 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3424,11 +3424,11 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.9627774953842163</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3460,11 +3460,11 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.296</v>
+        <v>-0.9531811475753784</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3496,11 +3496,11 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3532,11 +3532,11 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7506</v>
+        <v>0.9969159364700317</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3712,11 +3712,11 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3784,11 +3784,11 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3820,11 +3820,11 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4019</v>
+        <v>-0.9526197910308838</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3856,11 +3856,11 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3892,11 +3892,11 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>-0.5255</v>
+        <v>-0.984369158744812</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4000,11 +4000,11 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4036,11 +4036,11 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3818</v>
+        <v>-0.9470576643943787</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4072,11 +4072,11 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-0.4767</v>
+        <v>0.8079326748847961</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4108,11 +4108,11 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>-0.9620301127433777</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4144,11 +4144,11 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4180,11 +4180,11 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>-0.9685261249542236</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4468,11 +4468,11 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>-0.9842934012413025</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4540,7 +4540,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4612,11 +4612,11 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6114000000000001</v>
+        <v>0.9934278130531311</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4684,11 +4684,11 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4720,11 +4720,11 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4756,11 +4756,11 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4792,11 +4792,11 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4828,11 +4828,11 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4864,11 +4864,11 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4900,11 +4900,11 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4972,11 +4972,11 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5008,11 +5008,11 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -5116,11 +5116,11 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.7556607127189636</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -5224,11 +5224,11 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -5260,11 +5260,11 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5332,11 +5332,11 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5368,11 +5368,11 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>0.9627774953842163</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5404,11 +5404,11 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>0.908699631690979</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>-0.092</v>
+        <v>-0.9645628333091736</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5512,11 +5512,11 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7096</v>
+        <v>0.9834268093109131</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5584,11 +5584,11 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.3818</v>
+        <v>-0.9470576643943787</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>-0.092</v>
+        <v>-0.9645628333091736</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>-0.5994</v>
+        <v>-0.9625122547149658</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5800,11 +5800,11 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -5836,11 +5836,11 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7506</v>
+        <v>0.9969159364700317</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.3182</v>
+        <v>0.9722418785095215</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -6052,11 +6052,11 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.872</v>
+        <v>-0.9715122580528259</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6088,11 +6088,11 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6124,11 +6124,11 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6160,11 +6160,11 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6196,11 +6196,11 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>-0.9514044523239136</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -6304,11 +6304,11 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>-0.9599809050559998</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -6412,11 +6412,11 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>0.9429233074188232</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6448,11 +6448,11 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>0.9587718844413757</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.3182</v>
+        <v>0.3815262615680695</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -6592,11 +6592,11 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6628,11 +6628,11 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3818</v>
+        <v>-0.9470576643943787</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6664,11 +6664,11 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4019</v>
+        <v>-0.9871507883071899</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -6772,11 +6772,11 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>-0.9722858071327209</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6808,11 +6808,11 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6844,11 +6844,11 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -6916,11 +6916,11 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -6952,11 +6952,11 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -6988,7 +6988,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.3182</v>
+        <v>0.9652268290519714</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.3182</v>
+        <v>0.9733182787895203</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -7168,11 +7168,11 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>-0.9599809050559998</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7204,11 +7204,11 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.872</v>
+        <v>-0.9715122580528259</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7240,11 +7240,11 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.3802</v>
+        <v>-0.676440954208374</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -7312,11 +7312,11 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -7348,11 +7348,11 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6249</v>
+        <v>0.9861658811569214</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7492,11 +7492,11 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>-0.9514044523239136</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.3182</v>
+        <v>0.9468191266059875</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -7564,11 +7564,11 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -7636,11 +7636,11 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>-0.9842934012413025</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -7744,11 +7744,11 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7780,11 +7780,11 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>-0.9804728627204895</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7852,11 +7852,11 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6114000000000001</v>
+        <v>0.9934093952178955</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7996,11 +7996,11 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -8104,11 +8104,11 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>0.9627774953842163</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8140,11 +8140,11 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8248,11 +8248,11 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>-0.25</v>
+        <v>0.5458189249038696</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8284,11 +8284,11 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -8320,11 +8320,11 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -8356,11 +8356,11 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.4939</v>
+        <v>-0.9920915365219116</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -8464,11 +8464,11 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>0.966234564781189</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8500,11 +8500,11 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>0.994373083114624</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.3182</v>
+        <v>0.9778922200202942</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -8644,11 +8644,11 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>-0.1531</v>
+        <v>0</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -8680,11 +8680,11 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -8716,11 +8716,11 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8752,11 +8752,11 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.3802</v>
+        <v>0.5535871982574463</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>-0.4767</v>
+        <v>-0.9155930876731873</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -8860,11 +8860,11 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -8896,11 +8896,11 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5574</v>
+        <v>0.9926878213882446</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8968,11 +8968,11 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>-0.9599809050559998</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6588000000000001</v>
+        <v>0.9867069125175476</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>-0.092</v>
+        <v>-0.9645628333091736</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -9148,11 +9148,11 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -9184,11 +9184,11 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -9220,11 +9220,11 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.4019</v>
+        <v>0</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -9256,11 +9256,11 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -9328,11 +9328,11 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>-0.4767</v>
+        <v>-0.9155930876731873</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -9400,11 +9400,11 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -9436,11 +9436,11 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>0.966234564781189</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -9472,11 +9472,11 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.3182</v>
+        <v>0.9722418785095215</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -9688,11 +9688,11 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>-0.9350733160972595</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -9724,11 +9724,11 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -9760,11 +9760,11 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -9796,11 +9796,11 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -9868,11 +9868,11 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.3182</v>
+        <v>0.9730138182640076</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -10048,11 +10048,11 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -10084,11 +10084,11 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -10120,11 +10120,11 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.6588000000000001</v>
+        <v>0.9867961406707764</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -10372,11 +10372,11 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.4019</v>
+        <v>0</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -10408,11 +10408,11 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -10480,11 +10480,11 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -10516,11 +10516,11 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.3802</v>
+        <v>-0.6687647700309753</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
@@ -10588,7 +10588,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H282" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.6249</v>
+        <v>0.9943140745162964</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>-0.092</v>
+        <v>-0.9645628333091736</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -10804,11 +10804,11 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>-0.9839097857475281</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H289" t="inlineStr">
         <is>
@@ -10876,11 +10876,11 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>-0.9599809050559998</v>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.3182</v>
+        <v>0.9497573375701904</v>
       </c>
       <c r="H294" t="inlineStr">
         <is>
@@ -11056,11 +11056,11 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>-0.9514044523239136</v>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.3182</v>
+        <v>0.9468191266059875</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H299" t="inlineStr">
         <is>
@@ -11236,7 +11236,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.3182</v>
+        <v>0.9497573375701904</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -11272,11 +11272,11 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H302" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H303" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H306" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.3182</v>
+        <v>0.9824308753013611</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>-0.3595</v>
+        <v>-0.5263790488243103</v>
       </c>
       <c r="H309" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H310" t="inlineStr">
         <is>
@@ -11632,11 +11632,11 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -11668,11 +11668,11 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -11740,11 +11740,11 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -11776,7 +11776,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -11884,11 +11884,11 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -11956,11 +11956,11 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -11992,11 +11992,11 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -12028,11 +12028,11 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12100,11 +12100,11 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0</v>
+        <v>0.994373083114624</v>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -12136,7 +12136,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -12172,11 +12172,11 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.3182</v>
+        <v>0.9733182787895203</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>0.3182</v>
+        <v>0.9733182787895203</v>
       </c>
       <c r="H328" t="inlineStr">
         <is>
@@ -12280,11 +12280,11 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.872</v>
+        <v>-0.9715122580528259</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12316,11 +12316,11 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-0.25</v>
+        <v>-0.9924799203872681</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -12424,11 +12424,11 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -12496,11 +12496,11 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>0</v>
+        <v>0.966234564781189</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
@@ -12568,11 +12568,11 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H338" t="inlineStr">
         <is>
@@ -12640,11 +12640,11 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0</v>
+        <v>-0.9804728627204895</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H341" t="inlineStr">
         <is>
@@ -12748,11 +12748,11 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -12784,11 +12784,11 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -12820,11 +12820,11 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -12856,11 +12856,11 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -12892,11 +12892,11 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -12928,11 +12928,11 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -12964,11 +12964,11 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13000,11 +13000,11 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13036,7 +13036,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="H350" t="inlineStr">
         <is>
@@ -13072,11 +13072,11 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -13144,11 +13144,11 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>-0.2263</v>
+        <v>-0.9947458505630493</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
@@ -13252,11 +13252,11 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>0.9403672218322754</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -13288,11 +13288,11 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -13396,11 +13396,11 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>0.4939</v>
+        <v>-0.9920915365219116</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13432,11 +13432,11 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13468,11 +13468,11 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13504,11 +13504,11 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -13540,7 +13540,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>0.5719</v>
+        <v>0.9956728219985962</v>
       </c>
       <c r="H366" t="inlineStr">
         <is>
@@ -13648,11 +13648,11 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>0</v>
+        <v>0.9587718844413757</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -13684,11 +13684,11 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13720,11 +13720,11 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>0</v>
+        <v>-0.9350733160972595</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -13792,11 +13792,11 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -13900,11 +13900,11 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -13936,11 +13936,11 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>0.3818</v>
+        <v>-0.9470576643943787</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -13972,11 +13972,11 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14008,11 +14008,11 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>-0.9599809050559998</v>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14044,11 +14044,11 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>0.2023</v>
+        <v>0.9653708338737488</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
@@ -14116,11 +14116,11 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14188,11 +14188,11 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>0</v>
+        <v>-0.9698339700698853</v>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14260,11 +14260,11 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14332,11 +14332,11 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14368,11 +14368,11 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>0</v>
+        <v>-0.9326357245445251</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14404,7 +14404,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>0.5719</v>
+        <v>0.9957555532455444</v>
       </c>
       <c r="H388" t="inlineStr">
         <is>
@@ -14440,11 +14440,11 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14476,7 +14476,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H390" t="inlineStr">
         <is>
@@ -14512,11 +14512,11 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>-0.4939</v>
+        <v>0</v>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14548,11 +14548,11 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14584,11 +14584,11 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>-0.9825721979141235</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14620,11 +14620,11 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14692,11 +14692,11 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>-0.4404</v>
+        <v>0</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14728,11 +14728,11 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -14764,11 +14764,11 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>0.4939</v>
+        <v>-0.9920915365219116</v>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14800,7 +14800,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H399" t="inlineStr">
         <is>
@@ -14836,11 +14836,11 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>0.3182</v>
+        <v>-0.6995490789413452</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14872,11 +14872,11 @@
         </is>
       </c>
       <c r="G401" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -14908,11 +14908,11 @@
         </is>
       </c>
       <c r="G402" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -14944,7 +14944,7 @@
         </is>
       </c>
       <c r="G403" t="n">
-        <v>-0.5927</v>
+        <v>-0.942723274230957</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         </is>
       </c>
       <c r="G404" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
@@ -15016,11 +15016,11 @@
         </is>
       </c>
       <c r="G405" t="n">
-        <v>0</v>
+        <v>-0.9685261249542236</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -15052,11 +15052,11 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15088,11 +15088,11 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>0.296</v>
+        <v>-0.9525652527809143</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="G409" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H409" t="inlineStr">
         <is>
@@ -15196,11 +15196,11 @@
         </is>
       </c>
       <c r="G410" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15232,11 +15232,11 @@
         </is>
       </c>
       <c r="G411" t="n">
-        <v>0</v>
+        <v>-0.9596769213676453</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -15268,11 +15268,11 @@
         </is>
       </c>
       <c r="G412" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15304,7 +15304,7 @@
         </is>
       </c>
       <c r="G413" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
@@ -15340,11 +15340,11 @@
         </is>
       </c>
       <c r="G414" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15412,11 +15412,11 @@
         </is>
       </c>
       <c r="G416" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -15448,11 +15448,11 @@
         </is>
       </c>
       <c r="G417" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15484,7 +15484,7 @@
         </is>
       </c>
       <c r="G418" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         </is>
       </c>
       <c r="G419" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H419" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         </is>
       </c>
       <c r="G420" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -15628,11 +15628,11 @@
         </is>
       </c>
       <c r="G422" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15736,11 +15736,11 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15772,11 +15772,11 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15844,11 +15844,11 @@
         </is>
       </c>
       <c r="G428" t="n">
-        <v>0.3818</v>
+        <v>-0.9899795055389404</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="G429" t="n">
-        <v>0.3182</v>
+        <v>0.9497573375701904</v>
       </c>
       <c r="H429" t="inlineStr">
         <is>
@@ -15916,11 +15916,11 @@
         </is>
       </c>
       <c r="G430" t="n">
-        <v>-0.25</v>
+        <v>0.5458189249038696</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -15952,11 +15952,11 @@
         </is>
       </c>
       <c r="G431" t="n">
-        <v>0.4588</v>
+        <v>0</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -15988,11 +15988,11 @@
         </is>
       </c>
       <c r="G432" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
         </is>
       </c>
       <c r="G433" t="n">
-        <v>0.6249</v>
+        <v>0.9943140745162964</v>
       </c>
       <c r="H433" t="inlineStr">
         <is>
@@ -16060,11 +16060,11 @@
         </is>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>-0.9842934012413025</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16096,11 +16096,11 @@
         </is>
       </c>
       <c r="G435" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -16132,7 +16132,7 @@
         </is>
       </c>
       <c r="G436" t="n">
-        <v>0.5719</v>
+        <v>0.9980765581130981</v>
       </c>
       <c r="H436" t="inlineStr">
         <is>
@@ -16204,11 +16204,11 @@
         </is>
       </c>
       <c r="G438" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16240,11 +16240,11 @@
         </is>
       </c>
       <c r="G439" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16276,11 +16276,11 @@
         </is>
       </c>
       <c r="G440" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -16312,11 +16312,11 @@
         </is>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>-0.9722858071327209</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="G442" t="n">
-        <v>-0.4767</v>
+        <v>-0.9155930876731873</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         </is>
       </c>
       <c r="G443" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         </is>
       </c>
       <c r="G444" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
@@ -16456,11 +16456,11 @@
         </is>
       </c>
       <c r="G445" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="G446" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
@@ -16528,11 +16528,11 @@
         </is>
       </c>
       <c r="G447" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -16564,7 +16564,7 @@
         </is>
       </c>
       <c r="G448" t="n">
-        <v>0.3182</v>
+        <v>0.9730138182640076</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
@@ -16600,11 +16600,11 @@
         </is>
       </c>
       <c r="G449" t="n">
-        <v>0</v>
+        <v>-0.9842934012413025</v>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16636,7 +16636,7 @@
         </is>
       </c>
       <c r="G450" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H450" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         </is>
       </c>
       <c r="G451" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
@@ -16744,7 +16744,7 @@
         </is>
       </c>
       <c r="G453" t="n">
-        <v>0.7506</v>
+        <v>0.9969159364700317</v>
       </c>
       <c r="H453" t="inlineStr">
         <is>
@@ -16780,11 +16780,11 @@
         </is>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -16816,11 +16816,11 @@
         </is>
       </c>
       <c r="G455" t="n">
-        <v>0.3818</v>
+        <v>-0.9470576643943787</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16852,11 +16852,11 @@
         </is>
       </c>
       <c r="G456" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16888,7 +16888,7 @@
         </is>
       </c>
       <c r="G457" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H457" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="G458" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -16960,11 +16960,11 @@
         </is>
       </c>
       <c r="G459" t="n">
-        <v>0.4939</v>
+        <v>-0.9920915365219116</v>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="G460" t="n">
-        <v>0.5719</v>
+        <v>0.9980668425559998</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
@@ -17032,11 +17032,11 @@
         </is>
       </c>
       <c r="G461" t="n">
-        <v>0.4939</v>
+        <v>-0.9920915365219116</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17068,11 +17068,11 @@
         </is>
       </c>
       <c r="G462" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17104,7 +17104,7 @@
         </is>
       </c>
       <c r="G463" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
@@ -17140,7 +17140,7 @@
         </is>
       </c>
       <c r="G464" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H464" t="inlineStr">
         <is>
@@ -17176,11 +17176,11 @@
         </is>
       </c>
       <c r="G465" t="n">
-        <v>0</v>
+        <v>-0.9514044523239136</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17212,11 +17212,11 @@
         </is>
       </c>
       <c r="G466" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -17248,7 +17248,7 @@
         </is>
       </c>
       <c r="G467" t="n">
-        <v>-0.5994</v>
+        <v>-0.9625122547149658</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H469" t="inlineStr">
         <is>
@@ -17356,11 +17356,11 @@
         </is>
       </c>
       <c r="G470" t="n">
-        <v>0</v>
+        <v>0.9575483202934265</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -17392,7 +17392,7 @@
         </is>
       </c>
       <c r="G471" t="n">
-        <v>-0.2023</v>
+        <v>-0.94029700756073</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         </is>
       </c>
       <c r="G472" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
@@ -17464,7 +17464,7 @@
         </is>
       </c>
       <c r="G473" t="n">
-        <v>0.4404</v>
+        <v>0.9641883969306946</v>
       </c>
       <c r="H473" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         </is>
       </c>
       <c r="G475" t="n">
-        <v>0.3182</v>
+        <v>0.9468191266059875</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
@@ -17572,11 +17572,11 @@
         </is>
       </c>
       <c r="G476" t="n">
-        <v>0</v>
+        <v>-0.9687365889549255</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17608,7 +17608,7 @@
         </is>
       </c>
       <c r="G477" t="n">
-        <v>0.6369</v>
+        <v>0.8650643825531006</v>
       </c>
       <c r="H477" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="G478" t="n">
-        <v>-0.4588</v>
+        <v>-0.9554943442344666</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
@@ -17680,11 +17680,11 @@
         </is>
       </c>
       <c r="G479" t="n">
-        <v>-0.2263</v>
+        <v>0.9613410234451294</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
         </is>
       </c>
       <c r="G480" t="n">
-        <v>0.3182</v>
+        <v>0.9652268290519714</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="G481" t="n">
-        <v>0.4199</v>
+        <v>0.9852736592292786</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         </is>
       </c>
       <c r="G482" t="n">
-        <v>-0.25</v>
+        <v>-0.9580197930335999</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         </is>
       </c>
       <c r="G483" t="n">
-        <v>-0.2263</v>
+        <v>-0.9872004985809326</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
@@ -17860,11 +17860,11 @@
         </is>
       </c>
       <c r="G484" t="n">
-        <v>0</v>
+        <v>-0.969231128692627</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17932,11 +17932,11 @@
         </is>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>-0.9327439069747925</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -17968,11 +17968,11 @@
         </is>
       </c>
       <c r="G487" t="n">
-        <v>0.5994</v>
+        <v>0</v>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -18004,11 +18004,11 @@
         </is>
       </c>
       <c r="G488" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -18040,11 +18040,11 @@
         </is>
       </c>
       <c r="G489" t="n">
-        <v>0</v>
+        <v>-0.917036235332489</v>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -18076,11 +18076,11 @@
         </is>
       </c>
       <c r="G490" t="n">
-        <v>0.6249</v>
+        <v>-0.9686987996101379</v>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -18112,7 +18112,7 @@
         </is>
       </c>
       <c r="G491" t="n">
-        <v>-0.4767</v>
+        <v>-0.9586629867553711</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
@@ -18184,11 +18184,11 @@
         </is>
       </c>
       <c r="G493" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -18220,11 +18220,11 @@
         </is>
       </c>
       <c r="G494" t="n">
-        <v>-0.2023</v>
+        <v>0.9910295009613037</v>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -18256,11 +18256,11 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>0</v>
+        <v>0.9504669904708862</v>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -18292,7 +18292,7 @@
         </is>
       </c>
       <c r="G496" t="n">
-        <v>0.1779</v>
+        <v>0.8719848990440369</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="G497" t="n">
-        <v>0.5574</v>
+        <v>0.9948362112045288</v>
       </c>
       <c r="H497" t="inlineStr">
         <is>
@@ -18364,11 +18364,11 @@
         </is>
       </c>
       <c r="G498" t="n">
-        <v>0</v>
+        <v>0.9685339331626892</v>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -18400,11 +18400,11 @@
         </is>
       </c>
       <c r="G499" t="n">
-        <v>0.296</v>
+        <v>-0.9531811475753784</v>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -18436,11 +18436,11 @@
         </is>
       </c>
       <c r="G500" t="n">
-        <v>-0.4767</v>
+        <v>0</v>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -18472,11 +18472,11 @@
         </is>
       </c>
       <c r="G501" t="n">
-        <v>0</v>
+        <v>-0.9829291105270386</v>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -18549,10 +18549,10 @@
         <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.228751724137931</v>
+        <v>-0.7627808821612391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2412844788399454</v>
+        <v>0.3965243621067702</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -18581,10 +18581,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01023062637874058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6880241028330736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -18613,10 +18613,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2505380952380952</v>
+        <v>0.4273824862071446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3792641882332031</v>
+        <v>0.897929161019054</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5994</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -18677,10 +18677,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3892166666666667</v>
+        <v>0.9053025411234962</v>
       </c>
       <c r="D6" t="n">
-        <v>0.319488991341228</v>
+        <v>0.05190356784234199</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -18709,10 +18709,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2877882352941177</v>
+        <v>-0.6351651233785293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1410314232819806</v>
+        <v>0.4839149877615775</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -18741,10 +18741,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3146764705882353</v>
+        <v>-0.9820107221603394</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123345082641201</v>
+        <v>0.01777413665450987</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -18773,10 +18773,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08323124999999999</v>
+        <v>0.6058039255440235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1681456381384899</v>
+        <v>0.4225603067703918</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -18805,10 +18805,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.37134</v>
+        <v>0.1917429804801941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2142973128289626</v>
+        <v>0.9807523078080778</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -18837,10 +18837,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5709</v>
+        <v>0.6021292090415955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02794765515336533</v>
+        <v>0.8129807313156712</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -18869,10 +18869,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03996</v>
+        <v>-0.06416748364766439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1547644145144484</v>
+        <v>0.2485195955354409</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -18901,10 +18901,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2127571428571429</v>
+        <v>-0.6831686837332589</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2708675285485103</v>
+        <v>0.218298494175152</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -18933,10 +18933,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04281428571428571</v>
+        <v>0.9538838948522296</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1601963884023072</v>
+        <v>0.01278488551835338</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -18965,10 +18965,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4260285714285714</v>
+        <v>0.06839630859238761</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1226194577894203</v>
+        <v>0.2559155532727771</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -18997,10 +18997,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1650642857142857</v>
+        <v>-0.862255586045129</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1978602366362636</v>
+        <v>0.2486036410431036</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -19029,10 +19029,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3833461538461538</v>
+        <v>-0.9897619119057288</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005574736972063556</v>
+        <v>0.0007845450017588462</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -19061,10 +19061,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2683307692307693</v>
+        <v>-0.1959258730594929</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3504506037104597</v>
+        <v>0.9188140211855473</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -19093,10 +19093,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3972615384615385</v>
+        <v>-0.07431650620240432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2866932057631803</v>
+        <v>0.749779252013149</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -19125,10 +19125,10 @@
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4382769230769231</v>
+        <v>0.9853839094822223</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06625893843910365</v>
+        <v>0.0003975129401216353</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -19157,10 +19157,10 @@
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2074416666666667</v>
+        <v>-0.985957607626915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06532718295880616</v>
+        <v>0.004305500561252616</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -19189,10 +19189,10 @@
         <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09449999999999999</v>
+        <v>-0.04412402348084883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4130460628065591</v>
+        <v>0.9696191790536675</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -19221,10 +19221,10 @@
         <v>11</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2245</v>
+        <v>-0.4509506984190507</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2579308628295575</v>
+        <v>0.5181029075136628</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.4215</v>
+        <v>-0.9487853646278381</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -19285,10 +19285,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1851545454545455</v>
+        <v>0.6104560873725198</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09154285732525901</v>
+        <v>0.7806696996139039</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -19317,10 +19317,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.21184</v>
+        <v>-0.6430738210678101</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02011208591867089</v>
+        <v>0.6266014951537471</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -19381,10 +19381,10 @@
         <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-0.9692981110678779</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.0002009471257527706</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -19413,10 +19413,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1730222222222222</v>
+        <v>0.3979526559511821</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3606024049343604</v>
+        <v>0.7050216259677349</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7579</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -19509,10 +19509,10 @@
         <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.4895888888888889</v>
+        <v>-0.1047470304701063</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03866666666666666</v>
+        <v>0.314241091410319</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -19541,10 +19541,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.14985</v>
+        <v>0.1204134970903397</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2774682839018337</v>
+        <v>0.8033577672632791</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -19605,10 +19605,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.9605663929666791</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.0009999109657994054</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -19637,10 +19637,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1268571428571428</v>
+        <v>-0.9681210347584316</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1582186552121552</v>
+        <v>0.01442156328493748</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -19669,10 +19669,10 @@
         <v>6</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1591</v>
+        <v>0.9657306969165802</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1742853177981439</v>
+        <v>0.0005519595908963688</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -19701,10 +19701,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.39725</v>
+        <v>-0.1620476345221201</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1946119600641235</v>
+        <v>0.3969340186042106</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -19733,10 +19733,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6882333333333334</v>
+        <v>-0.4806216259797414</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2305387834327809</v>
+        <v>0.8148788957899703</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -19765,10 +19765,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="n">
-        <v>0.12728</v>
+        <v>0.9644686579704285</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1742853177981439</v>
+        <v>0.00780062841715123</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -19797,10 +19797,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3182</v>
+        <v>0.9530337452888489</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.01389630982911813</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -19829,10 +19829,10 @@
         <v>5</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25456</v>
+        <v>0.9667280673980713</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1423033660880866</v>
+        <v>0.01473616065737338</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -19861,10 +19861,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24166</v>
+        <v>0.9510114073753357</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2437079768903759</v>
+        <v>0.03955920922627831</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.9429233074188232</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
